--- a/Data/Datawrapper_Codes.xlsx
+++ b/Data/Datawrapper_Codes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_februar2022/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_mai2022/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BC4B20D-81B6-40F4-9374-88460D0B14FF}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B402193D-94BC-4F14-99B7-8FD004047525}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{952992A2-AB5A-41C5-8BF4-315BB967E718}"/>
+    <workbookView xWindow="2910" yWindow="3435" windowWidth="18900" windowHeight="11055" xr2:uid="{952992A2-AB5A-41C5-8BF4-315BB967E718}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Vorlage</t>
   </si>
@@ -57,88 +55,13 @@
     <t>kt_it</t>
   </si>
   <si>
-    <t>Tierversuche</t>
-  </si>
-  <si>
-    <t>Tabakwerbung</t>
-  </si>
-  <si>
-    <t>Stempelabgaben</t>
-  </si>
-  <si>
-    <t>Medien</t>
-  </si>
-  <si>
-    <t>P3gdm</t>
-  </si>
-  <si>
-    <t>5vDGV</t>
-  </si>
-  <si>
-    <t>wZKfv</t>
-  </si>
-  <si>
-    <t>tR4Mo</t>
-  </si>
-  <si>
-    <t>4VNVg</t>
-  </si>
-  <si>
-    <t>1aRnw</t>
-  </si>
-  <si>
-    <t>kjAmQ</t>
-  </si>
-  <si>
-    <t>qNAUf</t>
-  </si>
-  <si>
-    <t>WGk40</t>
-  </si>
-  <si>
-    <t>qQE98</t>
-  </si>
-  <si>
-    <t>BqObn</t>
-  </si>
-  <si>
-    <t>yjcee</t>
-  </si>
-  <si>
-    <t>AKzE0</t>
-  </si>
-  <si>
-    <t>7N6h4</t>
-  </si>
-  <si>
-    <t>CuVev</t>
-  </si>
-  <si>
-    <t>lFR5K</t>
-  </si>
-  <si>
-    <t>39UBw</t>
-  </si>
-  <si>
-    <t>CnpLd</t>
-  </si>
-  <si>
-    <t>sCtMv</t>
-  </si>
-  <si>
-    <t>N2ndR</t>
-  </si>
-  <si>
-    <t>5hHsr</t>
-  </si>
-  <si>
-    <t>havtn</t>
-  </si>
-  <si>
-    <t>xQjeF</t>
-  </si>
-  <si>
-    <t>WUafy</t>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Transplantation</t>
+  </si>
+  <si>
+    <t>Frontex</t>
   </si>
 </sst>
 </file>
@@ -503,17 +426,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,99 +459,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
   </sheetData>

--- a/Data/Datawrapper_Codes.xlsx
+++ b/Data/Datawrapper_Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_mai2022/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B402193D-94BC-4F14-99B7-8FD004047525}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F28746B-7D0A-4A71-A056-4037A892CCC1}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="3435" windowWidth="18900" windowHeight="11055" xr2:uid="{952992A2-AB5A-41C5-8BF4-315BB967E718}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Vorlage</t>
   </si>
@@ -62,6 +62,60 @@
   </si>
   <si>
     <t>Frontex</t>
+  </si>
+  <si>
+    <t>fUNc5</t>
+  </si>
+  <si>
+    <t>zNwgY</t>
+  </si>
+  <si>
+    <t>0jRWi</t>
+  </si>
+  <si>
+    <t>KIYY4</t>
+  </si>
+  <si>
+    <t>m1Gdl</t>
+  </si>
+  <si>
+    <t>E1t9X</t>
+  </si>
+  <si>
+    <t>SysJE</t>
+  </si>
+  <si>
+    <t>VSEyc</t>
+  </si>
+  <si>
+    <t>PPrU9</t>
+  </si>
+  <si>
+    <t>e4SVV</t>
+  </si>
+  <si>
+    <t>Cwcad</t>
+  </si>
+  <si>
+    <t>Zin5C</t>
+  </si>
+  <si>
+    <t>T788N</t>
+  </si>
+  <si>
+    <t>x1r8a</t>
+  </si>
+  <si>
+    <t>QWWXs</t>
+  </si>
+  <si>
+    <t>rdlwy</t>
+  </si>
+  <si>
+    <t>X8qLC</t>
+  </si>
+  <si>
+    <t>P7WCc</t>
   </si>
 </sst>
 </file>
@@ -426,7 +480,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,15 +517,69 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -482,6 +590,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>